--- a/output/FreqDiscovFakeCitptile0.9alpha0.05power0.8N1000/FreqDiscovFakeCitptile0.9alpha0.05power0.8N1000N1000.xlsx
+++ b/output/FreqDiscovFakeCitptile0.9alpha0.05power0.8N1000/FreqDiscovFakeCitptile0.9alpha0.05power0.8N1000N1000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lewan\Documents\MATLAB\Modeling\Replication market\output\FreqDiscovFakeCitptile0.9alpha0.05power0.8N1000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA54725-2287-429F-8463-F57D3783B832}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8335E0A5-2FAD-44E7-8FA1-9E5AA1655BDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="2250" windowWidth="21600" windowHeight="12735" xr2:uid="{6B94D743-A535-47E0-B6FE-7E8017B6B0D0}"/>
+    <workbookView xWindow="1524" yWindow="1212" windowWidth="27060" windowHeight="14784" xr2:uid="{B52FD5C5-32D7-45D7-8DBC-6FFEFAC78826}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="4" r:id="rId1"/>
@@ -466,30 +466,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4685E057-C6C9-4FD7-93FF-3E228FBE8A49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E305ED-06F2-4C25-AECF-C51816CA7F8D}">
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,7 +536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -550,25 +550,25 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>9.0340000000000007</v>
+        <v>9.0809999999999995</v>
       </c>
       <c r="F2">
         <v>200</v>
       </c>
       <c r="G2">
-        <v>11.792999999999999</v>
+        <v>11.897</v>
       </c>
       <c r="H2">
-        <v>1.6879999999999999</v>
+        <v>1.792</v>
       </c>
       <c r="I2">
-        <v>1.014</v>
+        <v>1.1020000000000001</v>
       </c>
       <c r="J2">
-        <v>4.9352613005030618E-2</v>
+        <v>5.2277547541465852E-2</v>
       </c>
       <c r="K2">
-        <v>0.80062477186887382</v>
+        <v>0.81555007116540823</v>
       </c>
       <c r="L2">
         <v>100</v>
@@ -577,13 +577,13 @@
         <v>200</v>
       </c>
       <c r="N2">
-        <v>1.7170000000000001</v>
+        <v>1.7050000000000001</v>
       </c>
       <c r="O2">
-        <v>0.95499999999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.056</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -597,40 +597,40 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>8.9049999999999994</v>
+        <v>9.0250000000000004</v>
       </c>
       <c r="F3">
         <v>200</v>
       </c>
       <c r="G3">
-        <v>11.657</v>
+        <v>11.86</v>
       </c>
       <c r="H3">
-        <v>1.196</v>
+        <v>1.159</v>
       </c>
       <c r="I3">
-        <v>0.72799999999999998</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="J3">
-        <v>5.0987441561706447E-2</v>
+        <v>4.8398393110158026E-2</v>
       </c>
       <c r="K3">
-        <v>0.82486818980667831</v>
+        <v>0.81360022714366886</v>
       </c>
       <c r="L3">
         <v>100</v>
       </c>
       <c r="M3">
-        <v>110.31</v>
+        <v>110.065</v>
       </c>
       <c r="N3">
-        <v>1.224</v>
+        <v>1.22</v>
       </c>
       <c r="O3">
-        <v>0.755</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.76700000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -644,40 +644,40 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>8.9740000000000002</v>
+        <v>8.9770000000000003</v>
       </c>
       <c r="F4">
         <v>200</v>
       </c>
       <c r="G4">
-        <v>11.786</v>
+        <v>11.651</v>
       </c>
       <c r="H4">
-        <v>1.833</v>
+        <v>1.587</v>
       </c>
       <c r="I4">
-        <v>0.97399999999999998</v>
+        <v>1.0549999999999999</v>
       </c>
       <c r="J4">
-        <v>4.8556906527014373E-2</v>
+        <v>5.0296296974887883E-2</v>
       </c>
       <c r="K4">
-        <v>0.79592793516844185</v>
+        <v>0.78661398467432964</v>
       </c>
       <c r="L4">
         <v>100</v>
       </c>
       <c r="M4">
-        <v>114.44799999999999</v>
+        <v>114.441</v>
       </c>
       <c r="N4">
-        <v>1.6439999999999999</v>
+        <v>1.647</v>
       </c>
       <c r="O4">
-        <v>1.0089999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.98399999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -691,40 +691,40 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>9.0630000000000006</v>
+        <v>9.1839999999999993</v>
       </c>
       <c r="F5">
         <v>200</v>
       </c>
       <c r="G5">
-        <v>11.641</v>
+        <v>11.977</v>
       </c>
       <c r="H5">
-        <v>2.601</v>
+        <v>2.8210000000000002</v>
       </c>
       <c r="I5">
-        <v>1.7390000000000001</v>
+        <v>1.7270000000000001</v>
       </c>
       <c r="J5">
-        <v>4.8525573512915629E-2</v>
+        <v>4.8798274798502649E-2</v>
       </c>
       <c r="K5">
-        <v>0.80323716368020148</v>
+        <v>0.79977514815450046</v>
       </c>
       <c r="L5">
         <v>100</v>
       </c>
       <c r="M5">
-        <v>123.423</v>
+        <v>123.538</v>
       </c>
       <c r="N5">
-        <v>2.754</v>
+        <v>2.7490000000000001</v>
       </c>
       <c r="O5">
-        <v>1.718</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.704</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -738,25 +738,25 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>8.8629999999999995</v>
+        <v>8.9260000000000002</v>
       </c>
       <c r="F6">
         <v>200</v>
       </c>
       <c r="G6">
-        <v>14.045999999999999</v>
+        <v>15.037000000000001</v>
       </c>
       <c r="H6">
-        <v>2.0209999999999999</v>
+        <v>2.048</v>
       </c>
       <c r="I6">
-        <v>1.1060000000000001</v>
+        <v>1.1539999999999999</v>
       </c>
       <c r="J6">
-        <v>7.0024533755246046E-2</v>
+        <v>7.6775651682853149E-2</v>
       </c>
       <c r="K6">
-        <v>0.85974305931634776</v>
+        <v>0.88803882182021154</v>
       </c>
       <c r="L6">
         <v>100</v>
@@ -765,13 +765,13 @@
         <v>200</v>
       </c>
       <c r="N6">
-        <v>2.06</v>
+        <v>2.1579999999999999</v>
       </c>
       <c r="O6">
-        <v>1.133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -785,40 +785,40 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>8.9350000000000005</v>
+        <v>9.0190000000000001</v>
       </c>
       <c r="F7">
         <v>200</v>
       </c>
       <c r="G7">
-        <v>14.224</v>
+        <v>14.804</v>
       </c>
       <c r="H7">
-        <v>1.482</v>
+        <v>1.5649999999999999</v>
       </c>
       <c r="I7">
-        <v>0.74399999999999999</v>
+        <v>0.80900000000000005</v>
       </c>
       <c r="J7">
-        <v>7.4232251928330689E-2</v>
+        <v>7.519247213055287E-2</v>
       </c>
       <c r="K7">
-        <v>0.86198630136986332</v>
+        <v>0.87387464387464397</v>
       </c>
       <c r="L7">
         <v>100</v>
       </c>
       <c r="M7">
-        <v>110.07599999999999</v>
+        <v>110.151</v>
       </c>
       <c r="N7">
-        <v>1.444</v>
+        <v>1.486</v>
       </c>
       <c r="O7">
         <v>0.78400000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -832,40 +832,40 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>9.0139999999999993</v>
+        <v>9.1489999999999991</v>
       </c>
       <c r="F8">
         <v>200</v>
       </c>
       <c r="G8">
-        <v>14.433</v>
+        <v>15.06</v>
       </c>
       <c r="H8">
-        <v>2.081</v>
+        <v>2.1160000000000001</v>
       </c>
       <c r="I8">
-        <v>1.238</v>
+        <v>1.135</v>
       </c>
       <c r="J8">
-        <v>6.7685719667143152E-2</v>
+        <v>7.7830039249573921E-2</v>
       </c>
       <c r="K8">
-        <v>0.84286048689138549</v>
+        <v>0.88526015310756423</v>
       </c>
       <c r="L8">
         <v>100</v>
       </c>
       <c r="M8">
-        <v>114.33499999999999</v>
+        <v>114.496</v>
       </c>
       <c r="N8">
-        <v>2.008</v>
+        <v>2.2229999999999999</v>
       </c>
       <c r="O8">
-        <v>1.1299999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.1890000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -879,40 +879,40 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>9.0440000000000005</v>
+        <v>8.9730000000000008</v>
       </c>
       <c r="F9">
         <v>200</v>
       </c>
       <c r="G9">
-        <v>14.441000000000001</v>
+        <v>14.961</v>
       </c>
       <c r="H9">
-        <v>3.097</v>
+        <v>3.6850000000000001</v>
       </c>
       <c r="I9">
-        <v>1.9430000000000001</v>
+        <v>1.829</v>
       </c>
       <c r="J9">
-        <v>7.0259649669257351E-2</v>
+        <v>7.8198024774300753E-2</v>
       </c>
       <c r="K9">
-        <v>0.86161585773499094</v>
+        <v>0.88501961425302345</v>
       </c>
       <c r="L9">
         <v>100</v>
       </c>
       <c r="M9">
-        <v>123.717</v>
+        <v>123.673</v>
       </c>
       <c r="N9">
-        <v>3.3250000000000002</v>
+        <v>3.6019999999999999</v>
       </c>
       <c r="O9">
-        <v>1.8009999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.931</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -926,25 +926,25 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>8.9489999999999998</v>
+        <v>8.8650000000000002</v>
       </c>
       <c r="F10">
         <v>200</v>
       </c>
       <c r="G10">
-        <v>17.577000000000002</v>
+        <v>18.116</v>
       </c>
       <c r="H10">
-        <v>2.44</v>
+        <v>2.5489999999999999</v>
       </c>
       <c r="I10">
-        <v>1.1299999999999999</v>
+        <v>1.27</v>
       </c>
       <c r="J10">
-        <v>9.9683670332450861E-2</v>
+        <v>0.1043663122383385</v>
       </c>
       <c r="K10">
-        <v>0.95558743806811908</v>
+        <v>0.96491914142466795</v>
       </c>
       <c r="L10">
         <v>100</v>
@@ -953,13 +953,13 @@
         <v>200</v>
       </c>
       <c r="N10">
-        <v>2.4809999999999999</v>
+        <v>2.7509999999999999</v>
       </c>
       <c r="O10">
-        <v>1.181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.2629999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -973,40 +973,40 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>9.0749999999999993</v>
+        <v>8.8390000000000004</v>
       </c>
       <c r="F11">
         <v>200</v>
       </c>
       <c r="G11">
-        <v>17.971</v>
+        <v>18.027000000000001</v>
       </c>
       <c r="H11">
-        <v>1.8620000000000001</v>
+        <v>1.8180000000000001</v>
       </c>
       <c r="I11">
-        <v>0.89500000000000002</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="J11">
-        <v>0.10169714933759082</v>
+        <v>0.10024594351297163</v>
       </c>
       <c r="K11">
-        <v>0.9476312785388129</v>
+        <v>0.95771554091158695</v>
       </c>
       <c r="L11">
         <v>100</v>
       </c>
       <c r="M11">
-        <v>110.092</v>
+        <v>110.175</v>
       </c>
       <c r="N11">
-        <v>1.8089999999999999</v>
+        <v>1.83</v>
       </c>
       <c r="O11">
-        <v>0.877</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.89900000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1020,40 +1020,40 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>8.9489999999999998</v>
+        <v>9.0329999999999995</v>
       </c>
       <c r="F12">
         <v>200</v>
       </c>
       <c r="G12">
-        <v>17.902999999999999</v>
+        <v>18.288</v>
       </c>
       <c r="H12">
-        <v>2.5289999999999999</v>
+        <v>2.4910000000000001</v>
       </c>
       <c r="I12">
-        <v>1.367</v>
+        <v>1.242</v>
       </c>
       <c r="J12">
-        <v>0.10093473977287321</v>
+        <v>0.10511188200154083</v>
       </c>
       <c r="K12">
-        <v>0.96511518570756905</v>
+        <v>0.96814075130765587</v>
       </c>
       <c r="L12">
         <v>100</v>
       </c>
       <c r="M12">
-        <v>114.42400000000001</v>
+        <v>114.339</v>
       </c>
       <c r="N12">
-        <v>2.5960000000000001</v>
+        <v>2.573</v>
       </c>
       <c r="O12">
-        <v>1.262</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.2070000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1067,40 +1067,40 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>9.0960000000000001</v>
+        <v>9.2159999999999993</v>
       </c>
       <c r="F13">
         <v>200</v>
       </c>
       <c r="G13">
-        <v>17.747</v>
+        <v>18.448</v>
       </c>
       <c r="H13">
-        <v>4.1139999999999999</v>
+        <v>4.4269999999999996</v>
       </c>
       <c r="I13">
-        <v>2.0270000000000001</v>
+        <v>1.9410000000000001</v>
       </c>
       <c r="J13">
-        <v>0.10212793086255098</v>
+        <v>0.10689618361214619</v>
       </c>
       <c r="K13">
-        <v>0.95744116037219451</v>
+        <v>0.9705815958335553</v>
       </c>
       <c r="L13">
         <v>100</v>
       </c>
       <c r="M13">
-        <v>123.489</v>
+        <v>123.45399999999999</v>
       </c>
       <c r="N13">
-        <v>4.2160000000000002</v>
+        <v>4.4260000000000002</v>
       </c>
       <c r="O13">
-        <v>2.0499999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.1659999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1114,25 +1114,25 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>9.0850000000000009</v>
+        <v>9.0969999999999995</v>
       </c>
       <c r="F14">
         <v>200</v>
       </c>
       <c r="G14">
-        <v>19.341999999999999</v>
+        <v>19.690999999999999</v>
       </c>
       <c r="H14">
-        <v>2.86</v>
+        <v>3.0030000000000001</v>
       </c>
       <c r="I14">
-        <v>1.2749999999999999</v>
+        <v>1.224</v>
       </c>
       <c r="J14">
-        <v>0.11568340292543719</v>
+        <v>0.1181841012767193</v>
       </c>
       <c r="K14">
-        <v>0.98018576488576159</v>
+        <v>0.99049599787493292</v>
       </c>
       <c r="L14">
         <v>100</v>
@@ -1141,13 +1141,13 @@
         <v>200</v>
       </c>
       <c r="N14">
-        <v>2.7749999999999999</v>
+        <v>3.1</v>
       </c>
       <c r="O14">
-        <v>1.2629999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -1161,40 +1161,40 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>9.1029999999999998</v>
+        <v>9.0329999999999995</v>
       </c>
       <c r="F15">
         <v>200</v>
       </c>
       <c r="G15">
-        <v>19.411999999999999</v>
+        <v>19.562999999999999</v>
       </c>
       <c r="H15">
-        <v>1.8740000000000001</v>
+        <v>2.0129999999999999</v>
       </c>
       <c r="I15">
-        <v>0.93500000000000005</v>
+        <v>0.91</v>
       </c>
       <c r="J15">
-        <v>0.11611285705178924</v>
+        <v>0.12434547837353586</v>
       </c>
       <c r="K15">
-        <v>0.98097671777399209</v>
+        <v>0.98189655172413792</v>
       </c>
       <c r="L15">
         <v>100</v>
       </c>
       <c r="M15">
-        <v>110.214</v>
+        <v>110.151</v>
       </c>
       <c r="N15">
-        <v>2</v>
+        <v>2.008</v>
       </c>
       <c r="O15">
-        <v>0.91700000000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.85899999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
@@ -1208,40 +1208,40 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>9.1059999999999999</v>
+        <v>9.0350000000000001</v>
       </c>
       <c r="F16">
         <v>200</v>
       </c>
       <c r="G16">
-        <v>19.478999999999999</v>
+        <v>19.707999999999998</v>
       </c>
       <c r="H16">
-        <v>2.8839999999999999</v>
+        <v>2.9670000000000001</v>
       </c>
       <c r="I16">
-        <v>1.3160000000000001</v>
+        <v>1.2869999999999999</v>
       </c>
       <c r="J16">
-        <v>0.11463718767043102</v>
+        <v>0.11268901882635536</v>
       </c>
       <c r="K16">
-        <v>0.98120018752930149</v>
+        <v>0.98796296296296293</v>
       </c>
       <c r="L16">
         <v>100</v>
       </c>
       <c r="M16">
-        <v>114.327</v>
+        <v>114.345</v>
       </c>
       <c r="N16">
-        <v>2.8</v>
+        <v>2.7549999999999999</v>
       </c>
       <c r="O16">
-        <v>1.2889999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.2689999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10</v>
       </c>
@@ -1255,37 +1255,37 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>8.9890000000000008</v>
+        <v>8.9930000000000003</v>
       </c>
       <c r="F17">
         <v>200</v>
       </c>
       <c r="G17">
-        <v>19.155000000000001</v>
+        <v>19.498000000000001</v>
       </c>
       <c r="H17">
-        <v>4.4569999999999999</v>
+        <v>4.3029999999999999</v>
       </c>
       <c r="I17">
-        <v>1.998</v>
+        <v>2.1440000000000001</v>
       </c>
       <c r="J17">
-        <v>0.11399181923408787</v>
+        <v>0.11533972632432481</v>
       </c>
       <c r="K17">
-        <v>0.98412464159217405</v>
+        <v>0.99047899489595603</v>
       </c>
       <c r="L17">
         <v>100</v>
       </c>
       <c r="M17">
-        <v>123.486</v>
+        <v>123.616</v>
       </c>
       <c r="N17">
-        <v>4.5990000000000002</v>
+        <v>4.59</v>
       </c>
       <c r="O17">
-        <v>2.169</v>
+        <v>2.0859999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1294,29 +1294,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF1FFE5-C06B-49B7-AE85-178F80C5005E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85295C82-2B54-4893-8F0B-45516028BEFE}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1357,7 +1356,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>22.981961046756272</v>
       </c>
